--- a/medicine/Psychotrope/Caster_(marque)/Caster_(marque).xlsx
+++ b/medicine/Psychotrope/Caster_(marque)/Caster_(marque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caster (キャスター, Kyasutā?) est une marque de cigarettes produite et vendue par Japan Tobacco.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières cigarettes Caster sont introduites par la Nippon Monopoly Corporation le 1er juillet 1982. Le nom est choisi de la locution anglaise « news caster », signifiant présentateur/trice de nouvelles. Le tabac utilisé dans les cigarettes Caster contenait de la vanille de Madagascar, mais d'autres versions utilisaient d'autres saveurs (comme Caster Frontier, qui avait une saveur de chocolat)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières cigarettes Caster sont introduites par la Nippon Monopoly Corporation le 1er juillet 1982. Le nom est choisi de la locution anglaise « news caster », signifiant présentateur/trice de nouvelles. Le tabac utilisé dans les cigarettes Caster contenait de la vanille de Madagascar, mais d'autres versions utilisaient d'autres saveurs (comme Caster Frontier, qui avait une saveur de chocolat). 
 En 2003, la saveur Caster Super Mild a été lancée dans la préfecture de Hiroshima en édition limitée. À l'été 2004, les paquets de Caster changent de style, mais les Caster Mild et Caster Super Mild gardent leur ancien emballage. En avril 2007, la marque introduit son slogan, « Taste better than Casters », signifiant « goûte meilleur que les Casters ». Décembre 2007 marque un nouveau changement d'emballage pour toutes les saveurs, avec le retour de l'ancien logo. En avril 2010, l'entreprise change le teneur de ses saveurs en plus d'introduire une nouvelle ligne, les D-Spec. La marque subit des changements de prix pour avoir un prix uniforme en octobre 2010. 
-Après le séisme de 2011 de la côte Pacifique du Tōhoku, les Caster One et Caster Menthol arrêtent d'être vendus[2]. En 2015, tous les produits à l'exception de Caster Gold Silk sont retirés, pour être fusionnés avec la marque Winston[3]. Les Gold Silk finissent par être à leur tour retirés en novembre 2016. La marque fait son retour en avril 2021, avec l'introduction de Caster Vanilla Premium[4]. 
+Après le séisme de 2011 de la côte Pacifique du Tōhoku, les Caster One et Caster Menthol arrêtent d'être vendus. En 2015, tous les produits à l'exception de Caster Gold Silk sont retirés, pour être fusionnés avec la marque Winston. Les Gold Silk finissent par être à leur tour retirés en novembre 2016. La marque fait son retour en avril 2021, avec l'introduction de Caster Vanilla Premium. 
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1980, Caster a effectué de nombreuses campagnes publicitaires mettant en vedettes l'acteur Tatsuya Fuji. Il y utilisait le slogan « This tastes like me » (« Cela goûte comme moi »)[5]. 
-Dans les années 1990, les campagnes publicitaires de Caster se font à la télévision. On retrouve aussi des télécartes avec de la publicité pour Caster[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1980, Caster a effectué de nombreuses campagnes publicitaires mettant en vedettes l'acteur Tatsuya Fuji. Il y utilisait le slogan « This tastes like me » (« Cela goûte comme moi »). 
+Dans les années 1990, les campagnes publicitaires de Caster se font à la télévision. On retrouve aussi des télécartes avec de la publicité pour Caster.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Marchés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cigarettes Caster sont vendues principalement au Japon, mais aussi à Taiwan, Singapour et en Corée du Sud[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cigarettes Caster sont vendues principalement au Japon, mais aussi à Taiwan, Singapour et en Corée du Sud.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
